--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -975,7 +975,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -983,7 +983,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>John Bauerskogen, Upl</t>
+          <t>John Bauerskogen/Strömsbergs bruk, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">

--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1058,487 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111979876</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Strömsbergs bruk , Upl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>642175.212860164</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6698319.320043332</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111979480</v>
+      </c>
+      <c r="B6" t="n">
+        <v>88909</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>720</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Violgubbe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Gomphus clavatus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Strömsbergs bruk , Upl</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>642175.212860164</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6698319.320043332</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111980195</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90684</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4368</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hydnellum suaveolens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Tierp, Upl</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>642102.0428085228</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6698251.641631705</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111931635</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Strömsbergs bruk/spökskogen, Upl</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>642301.6473846264</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6698304.981152782</v>
+      </c>
+      <c r="S8" t="n">
+        <v>50</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111979876</v>
+        <v>111980195</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>90684</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1072,45 +1072,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>4368</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk , Upl</t>
+          <t>Tierp, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>642175.212860164</v>
+        <v>642102.0428085228</v>
       </c>
       <c r="R5" t="n">
-        <v>6698319.320043332</v>
+        <v>6698251.641631705</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1142,7 +1136,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1152,7 +1146,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1161,7 +1155,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1180,10 +1173,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111979480</v>
+        <v>111979876</v>
       </c>
       <c r="B6" t="n">
-        <v>88909</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1192,33 +1185,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>720</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Strömsbergs bruk , Upl</t>
@@ -1260,7 +1255,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1270,7 +1265,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1279,13 +1274,9 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1302,10 +1293,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111980195</v>
+        <v>111979480</v>
       </c>
       <c r="B7" t="n">
-        <v>90684</v>
+        <v>88909</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,39 +1305,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4368</v>
+        <v>720</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Tierp, Upl</t>
+          <t>Strömsbergs bruk , Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>642102.0428085228</v>
+        <v>642175.212860164</v>
       </c>
       <c r="R7" t="n">
-        <v>6698251.641631705</v>
+        <v>6698319.320043332</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1378,7 +1373,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1388,7 +1383,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1399,6 +1394,11 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1539,6 +1539,123 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112030310</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Strömsbergs bruk/spökskogen, Upl</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>642301.6473846264</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6698304.981152782</v>
+      </c>
+      <c r="S9" t="n">
+        <v>50</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -1293,10 +1293,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111979480</v>
+        <v>111931635</v>
       </c>
       <c r="B7" t="n">
-        <v>88909</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1305,46 +1305,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>720</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk , Upl</t>
+          <t>Strömsbergs bruk/spökskogen, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>642175.212860164</v>
+        <v>642301.6473846264</v>
       </c>
       <c r="R7" t="n">
-        <v>6698319.320043332</v>
+        <v>6698304.981152782</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1368,22 +1366,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1392,12 +1390,18 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1415,10 +1419,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111931635</v>
+        <v>111979480</v>
       </c>
       <c r="B8" t="n">
-        <v>90658</v>
+        <v>88909</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1427,44 +1431,46 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>720</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk/spökskogen, Upl</t>
+          <t>Strömsbergs bruk , Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>642301.6473846264</v>
+        <v>642175.212860164</v>
       </c>
       <c r="R8" t="n">
-        <v>6698304.981152782</v>
+        <v>6698319.320043332</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1488,22 +1494,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1512,18 +1518,12 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>

--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -1060,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111980195</v>
+        <v>111931635</v>
       </c>
       <c r="B5" t="n">
-        <v>90684</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1076,38 +1076,40 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4368</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tierp, Upl</t>
+          <t>Strömsbergs bruk/spökskogen, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>642102.0428085228</v>
+        <v>642301.6473846264</v>
       </c>
       <c r="R5" t="n">
-        <v>6698251.641631705</v>
+        <v>6698304.981152782</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1131,22 +1133,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,8 +1157,19 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1293,10 +1306,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111931635</v>
+        <v>111980195</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>90684</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1309,40 +1322,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk/spökskogen, Upl</t>
+          <t>Tierp, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>642301.6473846264</v>
+        <v>642102.0428085228</v>
       </c>
       <c r="R7" t="n">
-        <v>6698304.981152782</v>
+        <v>6698251.641631705</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1366,22 +1377,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1390,19 +1401,8 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">

--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -1060,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111931635</v>
+        <v>111979876</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1072,44 +1072,48 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk/spökskogen, Upl</t>
+          <t>Strömsbergs bruk , Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>642301.6473846264</v>
+        <v>642175.212860164</v>
       </c>
       <c r="R5" t="n">
-        <v>6698304.981152782</v>
+        <v>6698319.320043332</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1133,22 +1137,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1160,16 +1164,6 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1186,10 +1180,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111979876</v>
+        <v>111979480</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>88909</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,35 +1192,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>720</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Strömsbergs bruk , Upl</t>
@@ -1268,7 +1260,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1278,7 +1270,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1287,9 +1279,13 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1419,10 +1415,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111979480</v>
+        <v>111931635</v>
       </c>
       <c r="B8" t="n">
-        <v>88909</v>
+        <v>90658</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1431,46 +1427,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>720</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk , Upl</t>
+          <t>Strömsbergs bruk/spökskogen, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>642175.212860164</v>
+        <v>642301.6473846264</v>
       </c>
       <c r="R8" t="n">
-        <v>6698319.320043332</v>
+        <v>6698304.981152782</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1494,22 +1488,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1518,12 +1512,18 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>

--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,10 +940,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111788414</v>
+        <v>111788606</v>
       </c>
       <c r="B4" t="n">
-        <v>88909</v>
+        <v>88899</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -952,30 +952,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>720</v>
+        <v>3286</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -983,14 +983,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>John Bauerskogen/Strömsbergs bruk, Upl</t>
+          <t>Tierp, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>642126.0065959094</v>
+        <v>642102</v>
       </c>
       <c r="R4" t="n">
-        <v>6698335.697857533</v>
+        <v>6698252</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1020,19 +1020,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1060,10 +1050,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111979876</v>
+        <v>111788414</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>88909</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1072,30 +1062,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>720</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1103,14 +1093,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk , Upl</t>
+          <t>John Bauerskogen/Strömsbergs bruk, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>642175.212860164</v>
+        <v>642126</v>
       </c>
       <c r="R5" t="n">
-        <v>6698319.320043332</v>
+        <v>6698336</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1137,22 +1127,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>11:56</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>11:56</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1180,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111979480</v>
+        <v>111979876</v>
       </c>
       <c r="B6" t="n">
-        <v>88909</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1192,43 +1172,45 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>720</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Strömsbergs bruk , Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>642175.212860164</v>
+        <v>642175</v>
       </c>
       <c r="R6" t="n">
-        <v>6698319.320043332</v>
+        <v>6698319</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1260,7 +1242,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1270,7 +1252,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1279,13 +1261,9 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1343,10 +1321,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>642102.0428085228</v>
+        <v>642102</v>
       </c>
       <c r="R7" t="n">
-        <v>6698251.641631705</v>
+        <v>6698252</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1415,10 +1393,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111931635</v>
+        <v>111979480</v>
       </c>
       <c r="B8" t="n">
-        <v>90658</v>
+        <v>88909</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1427,44 +1405,46 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>720</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk/spökskogen, Upl</t>
+          <t>Strömsbergs bruk , Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>642301.6473846264</v>
+        <v>642175</v>
       </c>
       <c r="R8" t="n">
-        <v>6698304.981152782</v>
+        <v>6698319</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1488,22 +1468,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1512,18 +1492,12 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1541,10 +1515,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112030310</v>
+        <v>111931635</v>
       </c>
       <c r="B9" t="n">
-        <v>56414</v>
+        <v>90658</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1557,39 +1531,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Strömsbergs bruk/spökskogen, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>642301.6473846264</v>
+        <v>642302</v>
       </c>
       <c r="R9" t="n">
-        <v>6698304.981152782</v>
+        <v>6698305</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1616,22 +1588,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>15:29</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>15:29</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1640,8 +1602,19 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1655,6 +1628,123 @@
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112030310</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Strömsbergs bruk/spökskogen, Upl</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>642302</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6698305</v>
+      </c>
+      <c r="S10" t="n">
+        <v>50</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Tierp</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Tolfta</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Lotta Lund</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -1053,7 +1053,7 @@
         <v>111788414</v>
       </c>
       <c r="B5" t="n">
-        <v>88909</v>
+        <v>89043</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111979876</v>
+        <v>111979480</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>89043</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,35 +1172,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>720</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Strömsbergs bruk , Upl</t>
@@ -1242,7 +1240,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1252,7 +1250,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1261,9 +1259,13 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1283,7 +1285,7 @@
         <v>111980195</v>
       </c>
       <c r="B7" t="n">
-        <v>90684</v>
+        <v>90818</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1393,10 +1395,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111979480</v>
+        <v>111931635</v>
       </c>
       <c r="B8" t="n">
-        <v>88909</v>
+        <v>90792</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1405,46 +1407,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>720</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk , Upl</t>
+          <t>Strömsbergs bruk/spökskogen, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>642175</v>
+        <v>642302</v>
       </c>
       <c r="R8" t="n">
-        <v>6698319</v>
+        <v>6698305</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1468,22 +1468,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>11:47</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>11:47</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1492,12 +1482,18 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1515,10 +1511,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111931635</v>
+        <v>111979876</v>
       </c>
       <c r="B9" t="n">
-        <v>90658</v>
+        <v>90800</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1527,44 +1523,48 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk/spökskogen, Upl</t>
+          <t>Strömsbergs bruk , Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>642302</v>
+        <v>642175</v>
       </c>
       <c r="R9" t="n">
-        <v>6698305</v>
+        <v>6698319</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1588,12 +1588,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1605,16 +1615,6 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1634,7 +1634,7 @@
         <v>112030310</v>
       </c>
       <c r="B10" t="n">
-        <v>56414</v>
+        <v>56446</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>

--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -1160,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111979480</v>
+        <v>111931635</v>
       </c>
       <c r="B6" t="n">
-        <v>89043</v>
+        <v>90806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,46 +1172,44 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>720</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk , Upl</t>
+          <t>Strömsbergs bruk/spökskogen, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>642175</v>
+        <v>642302</v>
       </c>
       <c r="R6" t="n">
-        <v>6698319</v>
+        <v>6698305</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1235,22 +1233,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>11:47</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>11:47</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1259,12 +1247,18 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1282,10 +1276,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111980195</v>
+        <v>111979876</v>
       </c>
       <c r="B7" t="n">
-        <v>90818</v>
+        <v>90814</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1294,39 +1288,45 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4368</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Tierp, Upl</t>
+          <t>Strömsbergs bruk , Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>642102</v>
+        <v>642175</v>
       </c>
       <c r="R7" t="n">
-        <v>6698252</v>
+        <v>6698319</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1377,6 +1377,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1395,10 +1396,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111931635</v>
+        <v>111980195</v>
       </c>
       <c r="B8" t="n">
-        <v>90792</v>
+        <v>90832</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1411,40 +1412,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk/spökskogen, Upl</t>
+          <t>Tierp, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>642302</v>
+        <v>642102</v>
       </c>
       <c r="R8" t="n">
-        <v>6698305</v>
+        <v>6698252</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1468,12 +1467,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1482,19 +1491,8 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1511,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111979876</v>
+        <v>111979480</v>
       </c>
       <c r="B9" t="n">
-        <v>90800</v>
+        <v>89057</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1523,35 +1521,33 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>720</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Gray</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Strömsbergs bruk , Upl</t>
@@ -1593,7 +1589,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1603,7 +1599,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1612,9 +1608,13 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">

--- a/artfynd/A 8507-2023.xlsx
+++ b/artfynd/A 8507-2023.xlsx
@@ -1160,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111931635</v>
+        <v>111979480</v>
       </c>
       <c r="B6" t="n">
-        <v>90806</v>
+        <v>89057</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,44 +1172,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>720</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Gomphus clavatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Pers.) Gray</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk/spökskogen, Upl</t>
+          <t>Strömsbergs bruk , Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>642302</v>
+        <v>642175</v>
       </c>
       <c r="R6" t="n">
-        <v>6698305</v>
+        <v>6698319</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1233,12 +1235,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1247,18 +1259,12 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Kalkbarrskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1276,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111979876</v>
+        <v>111931635</v>
       </c>
       <c r="B7" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1288,48 +1294,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk , Upl</t>
+          <t>Strömsbergs bruk/spökskogen, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>642175</v>
+        <v>642302</v>
       </c>
       <c r="R7" t="n">
-        <v>6698319</v>
+        <v>6698305</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1353,22 +1355,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>11:56</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>11:56</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1380,6 +1372,16 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Kalkbarrskog</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1396,10 +1398,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111980195</v>
+        <v>111979876</v>
       </c>
       <c r="B8" t="n">
-        <v>90832</v>
+        <v>90814</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1408,39 +1410,45 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4368</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Tierp, Upl</t>
+          <t>Strömsbergs bruk , Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>642102</v>
+        <v>642175</v>
       </c>
       <c r="R8" t="n">
-        <v>6698252</v>
+        <v>6698319</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1472,7 +1480,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1482,7 +1490,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,6 +1499,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1509,10 +1518,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111979480</v>
+        <v>111980195</v>
       </c>
       <c r="B9" t="n">
-        <v>89057</v>
+        <v>90832</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,43 +1530,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>720</v>
+        <v>4368</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Gomphus clavatus</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Pers.) Gray</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Strömsbergs bruk , Upl</t>
+          <t>Tierp, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>642175</v>
+        <v>642102</v>
       </c>
       <c r="R9" t="n">
-        <v>6698319</v>
+        <v>6698252</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1589,7 +1594,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1599,7 +1604,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1610,11 +1615,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
